--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3382.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3382.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.298317292239688</v>
+        <v>4.351959228515625</v>
       </c>
       <c r="B1">
-        <v>2.580486995196051</v>
+        <v>4.055415630340576</v>
       </c>
       <c r="C1">
-        <v>3.522670819704893</v>
+        <v>1.941134572029114</v>
       </c>
       <c r="D1">
-        <v>4.133275432063855</v>
+        <v>1.470391273498535</v>
       </c>
       <c r="E1">
-        <v>1.448612003716482</v>
+        <v>1.308032989501953</v>
       </c>
     </row>
   </sheetData>
